--- a/biology/Botanique/Quercus_tomentella/Quercus_tomentella.xlsx
+++ b/biology/Botanique/Quercus_tomentella/Quercus_tomentella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne insulaire (Quercus tomentella), aussi appelé chêne vert insulaire, est un chêne de la section Protobalanus. Le chêne insulaire est endémique des six îles au large des côtes de la Californie, les îles Santa Rosa,
 Santa Cruz, Anacapa, San Clemente, Santa Catalina, San Clemente, et Guadalupe. Les cinq premières font partie des Channel Islands de Californie; L'île Guadalupe est située à l'Ouest du Mexique (Basse-Californie).
